--- a/Conf/Skill.xlsx
+++ b/Conf/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="16425"/>
+    <workbookView windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,87 +14,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>流水ID</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
   <si>
     <t>物理攻击</t>
   </si>
   <si>
-    <t>int(a)</t>
+    <t>物理穿透</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>PATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float(a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(a)*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(a)*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(a)</t>
+  </si>
+  <si>
+    <t>number(a)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,21 +83,166 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,18 +251,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -146,60 +457,302 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -207,102 +760,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -313,15 +849,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:G5" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:G5" totalsRowShown="0">
   <autoFilter ref="B1:G5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="技能ID"/>
-    <tableColumn id="7" name="等级"/>
-    <tableColumn id="6" name="物理攻击"/>
-    <tableColumn id="3" name="物理穿透"/>
-    <tableColumn id="4" name="攻击距离"/>
-    <tableColumn id="5" name="冷却"/>
+    <tableColumn id="2" name="等级"/>
+    <tableColumn id="3" name="物理攻击"/>
+    <tableColumn id="4" name="物理穿透"/>
+    <tableColumn id="5" name="攻击距离"/>
+    <tableColumn id="6" name="冷却"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -608,94 +1144,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.9230769230769" customWidth="1"/>
+    <col min="2" max="3" width="11.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="10.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -718,7 +1257,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -742,8 +1281,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
